--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -667,10 +667,11 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -698,19 +699,19 @@
         <v>43646</v>
       </c>
       <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43100</v>
       </c>
       <c r="K7" s="2">
         <v>43008</v>
@@ -736,22 +737,22 @@
         <v>2330000</v>
       </c>
       <c r="E8" s="3">
-        <v>4854200</v>
+        <v>2415400</v>
       </c>
       <c r="F8" s="3">
+        <v>2438800</v>
+      </c>
+      <c r="G8" s="3">
         <v>2211000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2438500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2241800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2264000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2187700</v>
       </c>
       <c r="K8" s="3">
         <v>2308700</v>
@@ -777,22 +778,22 @@
         <v>731400</v>
       </c>
       <c r="E9" s="3">
-        <v>1716900</v>
+        <v>878500</v>
       </c>
       <c r="F9" s="3">
+        <v>838400</v>
+      </c>
+      <c r="G9" s="3">
         <v>816900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>893800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>886600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>775000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>723500</v>
       </c>
       <c r="K9" s="3">
         <v>660600</v>
@@ -818,22 +819,22 @@
         <v>1598600</v>
       </c>
       <c r="E10" s="3">
-        <v>3137300</v>
+        <v>1536900</v>
       </c>
       <c r="F10" s="3">
+        <v>1600400</v>
+      </c>
+      <c r="G10" s="3">
         <v>1394100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1544700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1355100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1489000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1464300</v>
       </c>
       <c r="K10" s="3">
         <v>1648200</v>
@@ -999,22 +1000,22 @@
         <v>405400</v>
       </c>
       <c r="E15" s="3">
-        <v>802700</v>
+        <v>407800</v>
       </c>
       <c r="F15" s="3">
+        <v>394900</v>
+      </c>
+      <c r="G15" s="3">
         <v>389800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>387900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>347100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>376100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>405700</v>
       </c>
       <c r="K15" s="3">
         <v>353600</v>
@@ -1054,22 +1055,22 @@
         <v>1542900</v>
       </c>
       <c r="E17" s="3">
-        <v>3299500</v>
+        <v>1702700</v>
       </c>
       <c r="F17" s="3">
+        <v>1596800</v>
+      </c>
+      <c r="G17" s="3">
         <v>1574600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1644500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1736200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1502600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1605900</v>
       </c>
       <c r="K17" s="3">
         <v>1482400</v>
@@ -1095,22 +1096,22 @@
         <v>787100</v>
       </c>
       <c r="E18" s="3">
-        <v>1554700</v>
+        <v>712700</v>
       </c>
       <c r="F18" s="3">
+        <v>842000</v>
+      </c>
+      <c r="G18" s="3">
         <v>636400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>793900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>505500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>761500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>581800</v>
       </c>
       <c r="K18" s="3">
         <v>826400</v>
@@ -1153,22 +1154,22 @@
         <v>-67800</v>
       </c>
       <c r="E20" s="3">
-        <v>-96000</v>
+        <v>-47000</v>
       </c>
       <c r="F20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-48000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-60100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-22700</v>
       </c>
       <c r="K20" s="3">
         <v>-29300</v>
@@ -1191,25 +1192,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>322100</v>
+        <v>717000</v>
       </c>
       <c r="E21" s="3">
-        <v>2261400</v>
+        <v>678400</v>
       </c>
       <c r="F21" s="3">
+        <v>1188000</v>
+      </c>
+      <c r="G21" s="3">
         <v>592600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>774700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>436900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1113400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>613600</v>
       </c>
       <c r="K21" s="3">
         <v>810600</v>
@@ -1276,22 +1277,22 @@
         <v>719300</v>
       </c>
       <c r="E23" s="3">
-        <v>1458700</v>
+        <v>665600</v>
       </c>
       <c r="F23" s="3">
+        <v>793000</v>
+      </c>
+      <c r="G23" s="3">
         <v>588400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>733800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>466000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>737200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>559100</v>
       </c>
       <c r="K23" s="3">
         <v>797000</v>
@@ -1317,22 +1318,22 @@
         <v>180200</v>
       </c>
       <c r="E24" s="3">
-        <v>373800</v>
+        <v>176100</v>
       </c>
       <c r="F24" s="3">
+        <v>197800</v>
+      </c>
+      <c r="G24" s="3">
         <v>166700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>182200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>128000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>178800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>93100</v>
       </c>
       <c r="K24" s="3">
         <v>200800</v>
@@ -1399,22 +1400,22 @@
         <v>539100</v>
       </c>
       <c r="E26" s="3">
-        <v>1084900</v>
+        <v>489600</v>
       </c>
       <c r="F26" s="3">
+        <v>595300</v>
+      </c>
+      <c r="G26" s="3">
         <v>421700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>551600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>338000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>558500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>466000</v>
       </c>
       <c r="K26" s="3">
         <v>596300</v>
@@ -1440,22 +1441,22 @@
         <v>376700</v>
       </c>
       <c r="E27" s="3">
-        <v>775500</v>
+        <v>339800</v>
       </c>
       <c r="F27" s="3">
+        <v>435700</v>
+      </c>
+      <c r="G27" s="3">
         <v>249900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>387400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>207500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>401400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>293900</v>
       </c>
       <c r="K27" s="3">
         <v>407300</v>
@@ -1645,22 +1646,22 @@
         <v>67800</v>
       </c>
       <c r="E32" s="3">
-        <v>96000</v>
+        <v>47000</v>
       </c>
       <c r="F32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="G32" s="3">
         <v>48000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>60100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>22700</v>
       </c>
       <c r="K32" s="3">
         <v>29300</v>
@@ -1686,22 +1687,22 @@
         <v>376700</v>
       </c>
       <c r="E33" s="3">
-        <v>775500</v>
+        <v>339800</v>
       </c>
       <c r="F33" s="3">
+        <v>435700</v>
+      </c>
+      <c r="G33" s="3">
         <v>249900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>387400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>401400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>293900</v>
       </c>
       <c r="K33" s="3">
         <v>407300</v>
@@ -1768,22 +1769,22 @@
         <v>376700</v>
       </c>
       <c r="E35" s="3">
-        <v>775500</v>
+        <v>339800</v>
       </c>
       <c r="F35" s="3">
+        <v>435700</v>
+      </c>
+      <c r="G35" s="3">
         <v>249900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>387400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>401400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>293900</v>
       </c>
       <c r="K35" s="3">
         <v>407300</v>
@@ -1817,19 +1818,19 @@
         <v>43646</v>
       </c>
       <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43100</v>
       </c>
       <c r="K38" s="2">
         <v>43008</v>
@@ -1892,19 +1893,19 @@
         <v>1230800</v>
       </c>
       <c r="F41" s="3">
+        <v>1661500</v>
+      </c>
+      <c r="G41" s="3">
         <v>1235100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>969400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1206700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2055600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1782900</v>
       </c>
       <c r="K41" s="3">
         <v>1909700</v>
@@ -1933,19 +1934,19 @@
         <v>109200</v>
       </c>
       <c r="F42" s="3">
+        <v>69600</v>
+      </c>
+      <c r="G42" s="3">
         <v>76900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>64200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>61700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>76000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>129400</v>
       </c>
       <c r="K42" s="3">
         <v>65500</v>
@@ -1974,19 +1975,19 @@
         <v>1198200</v>
       </c>
       <c r="F43" s="3">
+        <v>1086300</v>
+      </c>
+      <c r="G43" s="3">
         <v>1619500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1286000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1107100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>893500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>669500</v>
       </c>
       <c r="K43" s="3">
         <v>923400</v>
@@ -2015,19 +2016,19 @@
         <v>53900</v>
       </c>
       <c r="F44" s="3">
+        <v>44200</v>
+      </c>
+      <c r="G44" s="3">
         <v>100400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>55000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>61300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>44100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>44200</v>
       </c>
       <c r="K44" s="3">
         <v>59900</v>
@@ -2056,19 +2057,19 @@
         <v>820300</v>
       </c>
       <c r="F45" s="3">
+        <v>909300</v>
+      </c>
+      <c r="G45" s="3">
         <v>1007700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>880500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>813500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>777400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>703400</v>
       </c>
       <c r="K45" s="3">
         <v>643000</v>
@@ -2097,19 +2098,19 @@
         <v>3412400</v>
       </c>
       <c r="F46" s="3">
+        <v>3771000</v>
+      </c>
+      <c r="G46" s="3">
         <v>3028800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3255000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3250300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3846600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3329300</v>
       </c>
       <c r="K46" s="3">
         <v>3601500</v>
@@ -2138,19 +2139,19 @@
         <v>337600</v>
       </c>
       <c r="F47" s="3">
+        <v>366100</v>
+      </c>
+      <c r="G47" s="3">
         <v>366900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>323300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>352900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>326700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>150400</v>
       </c>
       <c r="K47" s="3">
         <v>310000</v>
@@ -2179,19 +2180,19 @@
         <v>10299900</v>
       </c>
       <c r="F48" s="3">
+        <v>10257700</v>
+      </c>
+      <c r="G48" s="3">
         <v>10031000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9842900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9589900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9385000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>9291900</v>
       </c>
       <c r="K48" s="3">
         <v>8887100</v>
@@ -2220,19 +2221,19 @@
         <v>382900</v>
       </c>
       <c r="F49" s="3">
+        <v>388100</v>
+      </c>
+      <c r="G49" s="3">
         <v>352200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>303900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>284500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>258400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>247100</v>
       </c>
       <c r="K49" s="3">
         <v>212000</v>
@@ -2343,19 +2344,19 @@
         <v>666100</v>
       </c>
       <c r="F52" s="3">
+        <v>554900</v>
+      </c>
+      <c r="G52" s="3">
         <v>759900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>617300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>659600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>645300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>854400</v>
       </c>
       <c r="K52" s="3">
         <v>324900</v>
@@ -2425,19 +2426,19 @@
         <v>15098900</v>
       </c>
       <c r="F54" s="3">
+        <v>15337800</v>
+      </c>
+      <c r="G54" s="3">
         <v>14433700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14342500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14137200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14462000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>13873000</v>
       </c>
       <c r="K54" s="3">
         <v>13335600</v>
@@ -2500,19 +2501,19 @@
         <v>1095300</v>
       </c>
       <c r="F57" s="3">
+        <v>1244700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1033600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1006500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1011600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1047000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1090200</v>
       </c>
       <c r="K57" s="3">
         <v>899600</v>
@@ -2541,19 +2542,19 @@
         <v>832100</v>
       </c>
       <c r="F58" s="3">
+        <v>774400</v>
+      </c>
+      <c r="G58" s="3">
         <v>723700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>814400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1089800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>635500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>524900</v>
       </c>
       <c r="K58" s="3">
         <v>440400</v>
@@ -2582,19 +2583,19 @@
         <v>1753700</v>
       </c>
       <c r="F59" s="3">
+        <v>1590800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1902900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1682900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1658900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1582400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1561300</v>
       </c>
       <c r="K59" s="3">
         <v>1683500</v>
@@ -2623,19 +2624,19 @@
         <v>3681100</v>
       </c>
       <c r="F60" s="3">
+        <v>3609900</v>
+      </c>
+      <c r="G60" s="3">
         <v>3238300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3503700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3760200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3264900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3176300</v>
       </c>
       <c r="K60" s="3">
         <v>3023500</v>
@@ -2664,19 +2665,19 @@
         <v>3193100</v>
       </c>
       <c r="F61" s="3">
+        <v>2271900</v>
+      </c>
+      <c r="G61" s="3">
         <v>2362400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2452900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2583800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1903400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1958200</v>
       </c>
       <c r="K61" s="3">
         <v>1976800</v>
@@ -2705,19 +2706,19 @@
         <v>640600</v>
       </c>
       <c r="F62" s="3">
+        <v>641800</v>
+      </c>
+      <c r="G62" s="3">
         <v>667500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>945800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>911100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>883900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>910300</v>
       </c>
       <c r="K62" s="3">
         <v>595300</v>
@@ -2869,19 +2870,19 @@
         <v>8522500</v>
       </c>
       <c r="F66" s="3">
+        <v>7980200</v>
+      </c>
+      <c r="G66" s="3">
         <v>7510000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8005400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8191800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7567500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>7400300</v>
       </c>
       <c r="K66" s="3">
         <v>6985600</v>
@@ -3091,19 +3092,19 @@
         <v>6008600</v>
       </c>
       <c r="F72" s="3">
+        <v>6805100</v>
+      </c>
+      <c r="G72" s="3">
         <v>6369700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5774900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5389000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6344100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>5970000</v>
       </c>
       <c r="K72" s="3">
         <v>5803600</v>
@@ -3255,19 +3256,19 @@
         <v>6576400</v>
       </c>
       <c r="F76" s="3">
+        <v>7357600</v>
+      </c>
+      <c r="G76" s="3">
         <v>6923700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6337100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5945500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6894500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>6472700</v>
       </c>
       <c r="K76" s="3">
         <v>6350000</v>
@@ -3342,19 +3343,19 @@
         <v>43646</v>
       </c>
       <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43100</v>
       </c>
       <c r="K80" s="2">
         <v>43008</v>
@@ -3380,22 +3381,22 @@
         <v>376700</v>
       </c>
       <c r="E81" s="3">
-        <v>775500</v>
+        <v>339800</v>
       </c>
       <c r="F81" s="3">
+        <v>435700</v>
+      </c>
+      <c r="G81" s="3">
         <v>249900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>387400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>401400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>293900</v>
       </c>
       <c r="K81" s="3">
         <v>407300</v>
@@ -3684,22 +3685,22 @@
         <v>739300</v>
       </c>
       <c r="E89" s="3">
-        <v>1939100</v>
+        <v>1026300</v>
       </c>
       <c r="F89" s="3">
+        <v>912800</v>
+      </c>
+      <c r="G89" s="3">
         <v>1216500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>875100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>435800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>669600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>883100</v>
       </c>
       <c r="K89" s="3">
         <v>1017000</v>
@@ -3742,22 +3743,22 @@
         <v>-1508600</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>6600</v>
       </c>
       <c r="F91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G91" s="3">
         <v>1703300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1715600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>27100</v>
       </c>
       <c r="K91" s="3">
         <v>-7800</v>
@@ -3865,22 +3866,22 @@
         <v>-405500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1143800</v>
+        <v>-709200</v>
       </c>
       <c r="F94" s="3">
+        <v>-434600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-769200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-693100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-545600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-448400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-855200</v>
       </c>
       <c r="K94" s="3">
         <v>-434500</v>
@@ -3923,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1136000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3938,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4087,22 +4088,22 @@
         <v>-469900</v>
       </c>
       <c r="E100" s="3">
-        <v>-817100</v>
+        <v>-755300</v>
       </c>
       <c r="F100" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-175300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-412600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-748000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-166000</v>
       </c>
       <c r="K100" s="3">
         <v>-22900</v>
@@ -4128,22 +4129,22 @@
         <v>-7900</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="F101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1700</v>
       </c>
       <c r="K101" s="3">
         <v>2100</v>
@@ -4169,22 +4170,22 @@
         <v>-144100</v>
       </c>
       <c r="E102" s="3">
-        <v>-25500</v>
+        <v>-441400</v>
       </c>
       <c r="F102" s="3">
+        <v>415900</v>
+      </c>
+      <c r="G102" s="3">
         <v>264100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-221200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-849900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>267600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-136400</v>
       </c>
       <c r="K102" s="3">
         <v>561800</v>

--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2393600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2304800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2330000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2415400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2438800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2211000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2438500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2241800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2264000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2308700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2309900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2171500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2110200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2081400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>528800</v>
+      </c>
+      <c r="F9" s="3">
         <v>731400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>878500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>838400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>816900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>893800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>886600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>775000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>660600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>755500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>631800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>619200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>563400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1709600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1598600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1536900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1600400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1394100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1544700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1355100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1489000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1648200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1554400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1539800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1490900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1518000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,31 +983,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>82000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -991,49 +1030,61 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>479400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>696200</v>
+      </c>
+      <c r="F15" s="3">
         <v>405400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>407800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>394900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>389800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>387900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>347100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>376100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>353600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>340000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>334100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>363900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>323300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1558600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1649100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1542900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1702700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1596800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1574600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1644500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1736200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1502600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1482400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1519300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1297200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1487100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1354500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>655800</v>
+      </c>
+      <c r="F18" s="3">
         <v>787100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>712700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>842000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>636400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>793900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>505500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>761500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>826400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>790700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>874400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>623100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>726900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1210,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-152800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-67800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-47000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-48000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-60100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-39600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-24200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-29300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-11700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-24600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>717000</v>
+        <v>1271700</v>
       </c>
       <c r="E21" s="3">
-        <v>678400</v>
+        <v>823400</v>
       </c>
       <c r="F21" s="3">
-        <v>1188000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>592600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>774700</v>
+        <v>703100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
+        <v>594000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>773400</v>
+      </c>
+      <c r="K21" s="3">
         <v>436900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1113400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>810600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>771100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1196800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>626100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>737200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>764700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>503000</v>
+      </c>
+      <c r="F23" s="3">
         <v>719300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>665600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>793000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>588400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>733800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>466000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>737200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>797000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>765200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>862700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>598400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>708300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>183600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>176800</v>
+      </c>
+      <c r="F24" s="3">
         <v>180200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>176100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>197800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>166700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>182200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>128000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>178800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>196800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>206400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>109800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>581100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>326200</v>
+      </c>
+      <c r="F26" s="3">
         <v>539100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>489600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>595300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>421700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>551600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>338000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>558500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>596300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>568300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>656300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>488600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>410300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>182600</v>
+      </c>
+      <c r="F27" s="3">
         <v>376700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>339800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>435700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>249900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>387400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>207500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>401400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>407300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>379100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>468200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>322100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>152800</v>
+      </c>
+      <c r="F32" s="3">
         <v>67800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>47000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>48000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>60100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>39600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>24200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>29300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>11700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>24600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>410300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>182600</v>
+      </c>
+      <c r="F33" s="3">
         <v>376700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>339800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>435700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>249900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>387400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>207500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>401400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>407300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>379100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>468200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>322100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>410300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>182600</v>
+      </c>
+      <c r="F35" s="3">
         <v>376700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>339800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>435700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>249900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>387400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>207500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>401400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>407300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>379100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>468200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>322100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +2052,433 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1765100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1290900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1085600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1230800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1661500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1235100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>969400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1206700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2055600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1909700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1347800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2364300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2089000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2020600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F42" s="3">
         <v>14100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>109200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>69600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>76900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>64200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>61700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>76000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>65500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>78500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>97900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>97700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1197300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>933600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1108600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1198200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1086300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1619500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1286000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1107100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>893500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>923400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>830800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>716700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>553000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>761500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F44" s="3">
         <v>48000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>53900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>44200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>100400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>55000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>61300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>44100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>59900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>79700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>42900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>40900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>530600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>875800</v>
+      </c>
+      <c r="F45" s="3">
         <v>902700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>820300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>909300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1007700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>880500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>813500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>777400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>643000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>604000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>576000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>558500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>584100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3567500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2920500</v>
+      </c>
+      <c r="F46" s="3">
         <v>3158900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3412400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3771000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3028800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3255000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3250300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3846600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3601500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2940800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3797700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3339100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3666000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>297500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>392700</v>
+      </c>
+      <c r="F47" s="3">
         <v>341200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>337600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>366100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>366900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>323300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>352900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>326700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>310000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>295800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>221400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>129300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>203400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12177700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11021800</v>
+      </c>
+      <c r="F48" s="3">
         <v>10454700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10299900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10257700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10031000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>9842900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9589900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9385000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8887100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8688600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8495400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8376300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8035600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>447400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>451200</v>
+      </c>
+      <c r="F49" s="3">
         <v>386400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>382900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>388100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>352200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>303900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>284500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>258400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>212000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>215100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>212700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>216200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2565,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>443900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>948400</v>
+      </c>
+      <c r="F52" s="3">
         <v>708100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>666100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>554900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>759900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>617300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>659600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>645300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>324900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>308600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>404100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>493100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>308100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16934000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15484600</v>
+      </c>
+      <c r="F54" s="3">
         <v>15049300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15098900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15337800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14433700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14342500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14137200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14462000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13335600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12449000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13131300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12554000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12422300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>955400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>972800</v>
+      </c>
+      <c r="F57" s="3">
         <v>960200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1095300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1244700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1033600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1006500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1011600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1047000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>899600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>827000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>867900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>946300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1019100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1464800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1601500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1066900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>832100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>774400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>723700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>814400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1089800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>635500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>440400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>441100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>382500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>380200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2063100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1744500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1753700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1590800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1902900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1682900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1658900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1582400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1683500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1484500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1597800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1456800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1490200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4483200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4085800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3771600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3681100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3609900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3238300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3503700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3760200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3264900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3023500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2752600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2848100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2783300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2855400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2765200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2370800</v>
+      </c>
+      <c r="F61" s="3">
         <v>2489300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3193100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2271900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2362400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2452900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2583800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1903400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1976800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1985700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1842300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1845700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1938800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>827300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>820400</v>
+      </c>
+      <c r="F62" s="3">
         <v>637100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>640600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>641800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>667500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>945800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>911100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>883900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>595300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>569000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>568900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>555700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>463500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9482700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8515300</v>
+      </c>
+      <c r="F66" s="3">
         <v>8077700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8522500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7980200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7510000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8005400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8191800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7567500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6985600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6508300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6755900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6662600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6569000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6860300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6404200</v>
+      </c>
+      <c r="F72" s="3">
         <v>6388500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>6008600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>6805100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>6369700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>5774900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5389000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>6344100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5803600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>5396400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>5831200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5392300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>5312500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7451300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6969300</v>
+      </c>
+      <c r="F76" s="3">
         <v>6971600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6576400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>7357600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6923700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6337100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5945500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6894500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6350000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5940700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6375400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5891400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5853300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>410300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>182600</v>
+      </c>
+      <c r="F81" s="3">
         <v>376700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>339800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>435700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>249900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>387400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>207500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>401400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>407300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>379100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>468200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>322100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1232200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1449100</v>
+      </c>
+      <c r="F89" s="3">
         <v>739300</v>
       </c>
-      <c r="E89" s="3">
-        <v>1026300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>912800</v>
-      </c>
       <c r="G89" s="3">
+        <v>1025300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>913900</v>
+      </c>
+      <c r="I89" s="3">
         <v>1216500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>875100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>435800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>669600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1017000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>643300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>914900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>574100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1003800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-283600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-961700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1508600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>6600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>1703300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1715600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>15100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-45800</v>
       </c>
       <c r="M91" s="3">
         <v>-7800</v>
       </c>
       <c r="N91" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="P91" s="3">
         <v>-436500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-613600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-356200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-961900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-405500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-709200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-434600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-769200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-693100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-545600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-448400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-434500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-563000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-457800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-340700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-602400</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,13 +4418,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-134400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4564,151 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-479500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-469900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-755300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-61800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-175300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-412600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-748000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>43800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-22900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1104900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-179900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-181500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-7900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>9500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>12100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>428600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-144100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-441400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>415900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>264100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-221200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-849900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>267600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>561800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1024200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>275200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>64100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>519500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -2154,7 +2154,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1197300</v>
+        <v>1173300</v>
       </c>
       <c r="E43" s="3">
         <v>933600</v>
@@ -2169,7 +2169,7 @@
         <v>1086300</v>
       </c>
       <c r="I43" s="3">
-        <v>1619500</v>
+        <v>1554800</v>
       </c>
       <c r="J43" s="3">
         <v>1286000</v>
@@ -2248,7 +2248,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>530600</v>
+        <v>554500</v>
       </c>
       <c r="E45" s="3">
         <v>875800</v>
@@ -2263,7 +2263,7 @@
         <v>909300</v>
       </c>
       <c r="I45" s="3">
-        <v>1007700</v>
+        <v>1072400</v>
       </c>
       <c r="J45" s="3">
         <v>880500</v>
@@ -2806,7 +2806,7 @@
         <v>1464800</v>
       </c>
       <c r="E58" s="3">
-        <v>1601500</v>
+        <v>1275100</v>
       </c>
       <c r="F58" s="3">
         <v>1066900</v>

--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,296 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2559400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2487500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2376200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2555400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2286300</v>
+      </c>
+      <c r="J8" s="3">
         <v>2393600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="K8" s="3">
         <v>2304800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="L8" s="3">
         <v>2330000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="M8" s="3">
         <v>2415400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="N8" s="3">
         <v>2438800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="O8" s="3">
         <v>2211000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="P8" s="3">
         <v>2438500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="Q8" s="3">
         <v>2241800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="R8" s="3">
         <v>2264000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="S8" s="3">
         <v>2308700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="T8" s="3">
         <v>2309900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="U8" s="3">
         <v>2171500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="V8" s="3">
         <v>2110200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="W8" s="3">
         <v>2081400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>760600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>716700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>671200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>743500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>712100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>659100</v>
+      </c>
+      <c r="J9" s="3">
         <v>684000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="K9" s="3">
         <v>528800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="L9" s="3">
         <v>731400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="M9" s="3">
         <v>878500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="N9" s="3">
         <v>838400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="O9" s="3">
         <v>816900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>893800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="Q9" s="3">
         <v>886600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="R9" s="3">
         <v>775000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="S9" s="3">
         <v>660600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="T9" s="3">
         <v>755500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="U9" s="3">
         <v>631800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="V9" s="3">
         <v>619200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="W9" s="3">
         <v>563400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1798800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1705000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1811900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1603800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="J10" s="3">
         <v>1709600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="K10" s="3">
         <v>1776000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="L10" s="3">
         <v>1598600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="M10" s="3">
         <v>1536900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="N10" s="3">
         <v>1600400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="O10" s="3">
         <v>1394100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="P10" s="3">
         <v>1544700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="Q10" s="3">
         <v>1355100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="R10" s="3">
         <v>1489000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="S10" s="3">
         <v>1648200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="T10" s="3">
         <v>1554400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="U10" s="3">
         <v>1539800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="V10" s="3">
         <v>1490900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="W10" s="3">
         <v>1518000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +972,14 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +1025,26 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1090,156 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>82000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+        <v>82000</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>518800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>510000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>552100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>497800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>495500</v>
+      </c>
+      <c r="J15" s="3">
         <v>479400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="K15" s="3">
         <v>696200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="L15" s="3">
         <v>405400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="M15" s="3">
         <v>407800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="N15" s="3">
         <v>394900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="O15" s="3">
         <v>389800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="P15" s="3">
         <v>387900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="Q15" s="3">
         <v>347100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="R15" s="3">
         <v>376100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="S15" s="3">
         <v>353600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="T15" s="3">
         <v>340000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="U15" s="3">
         <v>334100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="V15" s="3">
         <v>363900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="W15" s="3">
         <v>323300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1254,144 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1671400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1653300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1557200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1821000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1560500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1587600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1558600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>1649100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>1542900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>1702700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>1596800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>1574600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>1644500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>1736200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>1502600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>1482400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3">
         <v>1519300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>1297200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="V17" s="3">
         <v>1487100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="W17" s="3">
         <v>1354500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>834100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>818900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>734400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>755400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>698700</v>
+      </c>
+      <c r="J18" s="3">
         <v>835000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="K18" s="3">
         <v>655800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>787100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>712700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>842000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>636400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>793900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>505500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R18" s="3">
         <v>761500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>826400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3">
         <v>790700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>874400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="V18" s="3">
         <v>623100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="W18" s="3">
         <v>726900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1409,144 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-70400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="K20" s="3">
         <v>-152800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="L20" s="3">
         <v>-67800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="M20" s="3">
         <v>-47000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>-49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>-48000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>-60100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>-39600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="R20" s="3">
         <v>-24200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>-29300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="T20" s="3">
         <v>-25500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="U20" s="3">
         <v>-11700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="V20" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="W20" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>807500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>777800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>707500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>694100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>610500</v>
+      </c>
+      <c r="J21" s="3">
         <v>1271700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="K21" s="3">
         <v>823400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>703100</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>594000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
         <v>773400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
         <v>436900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>1113400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>810600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3">
         <v>771100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="U21" s="3">
         <v>1196800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="V21" s="3">
         <v>626100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="W21" s="3">
         <v>737200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1592,156 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>802600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>768500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>757100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>657500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>681700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>636400</v>
+      </c>
+      <c r="J23" s="3">
         <v>764700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
         <v>503000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>719300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>665600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>793000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>588400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>733800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>466000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>737200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>797000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
         <v>765200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="U23" s="3">
         <v>862700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="V23" s="3">
         <v>598400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="W23" s="3">
         <v>708300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>190600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>171200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>171800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>155500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>137100</v>
+      </c>
+      <c r="J24" s="3">
         <v>183600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="K24" s="3">
         <v>176800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="L24" s="3">
         <v>180200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="M24" s="3">
         <v>176100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="N24" s="3">
         <v>197800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="O24" s="3">
         <v>166700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="P24" s="3">
         <v>182200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="Q24" s="3">
         <v>128000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="R24" s="3">
         <v>178800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="S24" s="3">
         <v>200800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="T24" s="3">
         <v>196800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="U24" s="3">
         <v>206400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="V24" s="3">
         <v>109800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="W24" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1787,156 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>597300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>587100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>485700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>526300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>499200</v>
+      </c>
+      <c r="J26" s="3">
         <v>581100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>326200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>539100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>489600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>595300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>421700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>551600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>338000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>558500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>596300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3">
         <v>568300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="U26" s="3">
         <v>656300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="V26" s="3">
         <v>488600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="W26" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>449500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>450600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>421000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>398300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>358900</v>
+      </c>
+      <c r="J27" s="3">
         <v>410300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>182600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>376700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>339800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>435700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>249900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>387400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>207500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>401400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>407300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3">
         <v>379100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="U27" s="3">
         <v>468200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="V27" s="3">
         <v>322100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="W27" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1982,26 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +2047,26 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +2112,26 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +2177,156 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>65700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>61800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>76900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>73700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>62400</v>
+      </c>
+      <c r="J32" s="3">
         <v>70400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="K32" s="3">
         <v>152800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="L32" s="3">
         <v>67800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="M32" s="3">
         <v>47000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>48000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>60100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>39600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="R32" s="3">
         <v>24200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>29300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="T32" s="3">
         <v>25500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="U32" s="3">
         <v>11700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="V32" s="3">
         <v>24600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="W32" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>449500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>450600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>421000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>398300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>358900</v>
+      </c>
+      <c r="J33" s="3">
         <v>410300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>182600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>376700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>339800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>435700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>249900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>387400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>207500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>401400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>407300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3">
         <v>379100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>468200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="V33" s="3">
         <v>322100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="W33" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2372,161 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>449500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>450600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>421000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>398300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>358900</v>
+      </c>
+      <c r="J35" s="3">
         <v>410300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>182600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>376700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>339800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>435700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>249900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>387400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>207500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>401400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>407300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3">
         <v>379100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>468200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="V35" s="3">
         <v>322100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="W35" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2544,14 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2569,599 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1262300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2584200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2296400</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1519600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1231600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2022900</v>
+      </c>
+      <c r="J41" s="3">
         <v>1765100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="K41" s="3">
         <v>1290900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>1085600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>1230800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
         <v>1661500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="O41" s="3">
         <v>1235100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="P41" s="3">
         <v>969400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="Q41" s="3">
         <v>1206700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="R41" s="3">
         <v>2055600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="S41" s="3">
         <v>1909700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="T41" s="3">
         <v>1347800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="U41" s="3">
         <v>2364300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="V41" s="3">
         <v>2089000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="W41" s="3">
         <v>2020600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J42" s="3">
         <v>26800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="K42" s="3">
         <v>24800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="L42" s="3">
         <v>14100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="M42" s="3">
         <v>109200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="N42" s="3">
         <v>69600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="O42" s="3">
         <v>76900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="P42" s="3">
         <v>64200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="Q42" s="3">
         <v>61700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="R42" s="3">
         <v>76000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="S42" s="3">
         <v>65500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="T42" s="3">
         <v>78500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="U42" s="3">
         <v>97900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="V42" s="3">
         <v>97700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="W42" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>925500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>921800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1015100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>956100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1191000</v>
+      </c>
+      <c r="J43" s="3">
         <v>1173300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="K43" s="3">
         <v>933600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
         <v>1108600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="M43" s="3">
         <v>1198200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
         <v>1086300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
         <v>1554800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="P43" s="3">
         <v>1286000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="Q43" s="3">
         <v>1107100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="R43" s="3">
         <v>893500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="S43" s="3">
         <v>923400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="T43" s="3">
         <v>830800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="U43" s="3">
         <v>716700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="V43" s="3">
         <v>553000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="W43" s="3">
         <v>761500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>69000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>63100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>126600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>71800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>59600</v>
+      </c>
+      <c r="J44" s="3">
         <v>47700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="K44" s="3">
         <v>76300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="L44" s="3">
         <v>48000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="M44" s="3">
         <v>53900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="N44" s="3">
         <v>44200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="O44" s="3">
         <v>100400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="P44" s="3">
         <v>55000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="Q44" s="3">
         <v>61300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="R44" s="3">
         <v>44100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="S44" s="3">
         <v>59900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="T44" s="3">
         <v>79700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="U44" s="3">
         <v>42900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="V44" s="3">
         <v>40900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="W44" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>606300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>614600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>681400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>919100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>508500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>559000</v>
+      </c>
+      <c r="J45" s="3">
         <v>554500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="K45" s="3">
         <v>875800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="L45" s="3">
         <v>902700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="M45" s="3">
         <v>820300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="N45" s="3">
         <v>909300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="O45" s="3">
         <v>1072400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="P45" s="3">
         <v>880500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="Q45" s="3">
         <v>813500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="R45" s="3">
         <v>777400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="S45" s="3">
         <v>643000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="T45" s="3">
         <v>604000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="U45" s="3">
         <v>576000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="V45" s="3">
         <v>558500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="W45" s="3">
         <v>584100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2860600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4197300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4064400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3255200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2847400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3846900</v>
+      </c>
+      <c r="J46" s="3">
         <v>3567500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="K46" s="3">
         <v>2920500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="L46" s="3">
         <v>3158900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="M46" s="3">
         <v>3412400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="N46" s="3">
         <v>3771000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="O46" s="3">
         <v>3028800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="P46" s="3">
         <v>3255000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="Q46" s="3">
         <v>3250300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>3846600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>3601500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="T46" s="3">
         <v>2940800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="U46" s="3">
         <v>3797700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="V46" s="3">
         <v>3339100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="W46" s="3">
         <v>3666000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>885900</v>
+      </c>
+      <c r="F47" s="3">
+        <v>586400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>495300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>310500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>286100</v>
+      </c>
+      <c r="J47" s="3">
         <v>297500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="K47" s="3">
         <v>392700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="L47" s="3">
         <v>341200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="M47" s="3">
         <v>337600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="N47" s="3">
         <v>366100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="O47" s="3">
         <v>366900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="P47" s="3">
         <v>323300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="Q47" s="3">
         <v>352900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="R47" s="3">
         <v>326700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="S47" s="3">
         <v>310000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="T47" s="3">
         <v>295800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="U47" s="3">
         <v>221400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="V47" s="3">
         <v>129300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="W47" s="3">
         <v>203400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12497200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12414400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12448800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>12594000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>12249100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12202800</v>
+      </c>
+      <c r="J48" s="3">
         <v>12177700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="K48" s="3">
         <v>11021800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="L48" s="3">
         <v>10454700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="M48" s="3">
         <v>10299900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="N48" s="3">
         <v>10257700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="O48" s="3">
         <v>10031000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="P48" s="3">
         <v>9842900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="Q48" s="3">
         <v>9589900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="R48" s="3">
         <v>9385000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>8887100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3">
         <v>8688600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="U48" s="3">
         <v>8495400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="V48" s="3">
         <v>8376300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="W48" s="3">
         <v>8035600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>505300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>485900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>479200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>469100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>461600</v>
+      </c>
+      <c r="J49" s="3">
         <v>447400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="K49" s="3">
         <v>451200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="L49" s="3">
         <v>386400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="M49" s="3">
         <v>382900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="N49" s="3">
         <v>388100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="O49" s="3">
         <v>352200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="P49" s="3">
         <v>303900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="Q49" s="3">
         <v>284500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="R49" s="3">
         <v>258400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>212000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>215100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="U49" s="3">
         <v>212700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="V49" s="3">
         <v>216200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="W49" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +3207,26 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +3272,91 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>484300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>475700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>463900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>563900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>449200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>447200</v>
+      </c>
+      <c r="J52" s="3">
         <v>443900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="K52" s="3">
         <v>948400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="L52" s="3">
         <v>708100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="M52" s="3">
         <v>666100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="N52" s="3">
         <v>554900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="O52" s="3">
         <v>759900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="P52" s="3">
         <v>617300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="Q52" s="3">
         <v>659600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="R52" s="3">
         <v>645300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="S52" s="3">
         <v>324900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="T52" s="3">
         <v>308600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="U52" s="3">
         <v>404100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="V52" s="3">
         <v>493100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="W52" s="3">
         <v>308100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3402,91 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17255000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18478400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>18049400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>17286000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16325300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>17244600</v>
+      </c>
+      <c r="J54" s="3">
         <v>16934000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="K54" s="3">
         <v>15484600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>15049300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>15098900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>15337800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>14433700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>14342500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>14137200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>14462000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>13335600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>12449000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>13131300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="V54" s="3">
         <v>12554000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="W54" s="3">
         <v>12422300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3504,14 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +3529,404 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>953800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>933400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1120800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1189900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1119300</v>
+      </c>
+      <c r="J57" s="3">
         <v>955400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="K57" s="3">
         <v>972800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="L57" s="3">
         <v>960200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="M57" s="3">
         <v>1095300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="N57" s="3">
         <v>1244700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="O57" s="3">
         <v>1033600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="P57" s="3">
         <v>1006500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="Q57" s="3">
         <v>1011600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="R57" s="3">
         <v>1047000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="S57" s="3">
         <v>899600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="T57" s="3">
         <v>827000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="U57" s="3">
         <v>867900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="V57" s="3">
         <v>946300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="W57" s="3">
         <v>1019100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1813200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2287500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1891600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1727600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1520700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="J58" s="3">
         <v>1464800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="K58" s="3">
         <v>1275100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="L58" s="3">
         <v>1066900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="M58" s="3">
         <v>832100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="N58" s="3">
         <v>774400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="O58" s="3">
         <v>723700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="P58" s="3">
         <v>814400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="Q58" s="3">
         <v>1089800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="R58" s="3">
         <v>635500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>440400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3">
         <v>441100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="U58" s="3">
         <v>382500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="V58" s="3">
         <v>380200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="W58" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2018700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3155500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2066600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2018500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1902500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3095500</v>
+      </c>
+      <c r="J59" s="3">
         <v>2063100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="K59" s="3">
         <v>1970000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>1744500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>1753700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="N59" s="3">
         <v>1590800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="O59" s="3">
         <v>1902900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>1682900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="Q59" s="3">
         <v>1658900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="R59" s="3">
         <v>1582400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>1683500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3">
         <v>1484500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="U59" s="3">
         <v>1597800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="V59" s="3">
         <v>1456800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="W59" s="3">
         <v>1490200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4785700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6376400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5079000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4836500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4444000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5937800</v>
+      </c>
+      <c r="J60" s="3">
         <v>4483200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="K60" s="3">
         <v>4085800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>3771600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>3681100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>3609900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>3238300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>3503700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>3760200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="R60" s="3">
         <v>3264900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>3023500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
         <v>2752600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="U60" s="3">
         <v>2848100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="V60" s="3">
         <v>2783300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="W60" s="3">
         <v>2855400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2981900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3241400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2869000</v>
+      </c>
+      <c r="G61" s="3">
+        <v>2854700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2803100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>2779900</v>
+      </c>
+      <c r="J61" s="3">
         <v>2765200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="K61" s="3">
         <v>2370800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="L61" s="3">
         <v>2489300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="M61" s="3">
         <v>3193100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="N61" s="3">
         <v>2271900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="O61" s="3">
         <v>2362400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="P61" s="3">
         <v>2452900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="Q61" s="3">
         <v>2583800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="R61" s="3">
         <v>1903400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="S61" s="3">
         <v>1976800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="T61" s="3">
         <v>1985700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="U61" s="3">
         <v>1842300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="V61" s="3">
         <v>1845700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="W61" s="3">
         <v>1938800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1170500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1153200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1148600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1132500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>826000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>806900</v>
+      </c>
+      <c r="J62" s="3">
         <v>827300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="K62" s="3">
         <v>820400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="L62" s="3">
         <v>637100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="M62" s="3">
         <v>640600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="N62" s="3">
         <v>641800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="O62" s="3">
         <v>667500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="P62" s="3">
         <v>945800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="Q62" s="3">
         <v>911100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="R62" s="3">
         <v>883900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="S62" s="3">
         <v>595300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="T62" s="3">
         <v>569000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="U62" s="3">
         <v>568900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="V62" s="3">
         <v>555700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="W62" s="3">
         <v>463500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3972,26 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +4037,26 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +4102,91 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9924600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11589800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10445100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10109100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9205100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>10528900</v>
+      </c>
+      <c r="J66" s="3">
         <v>9482700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>8515300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>8077700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>8522500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>7980200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>7510000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>8005400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>8191800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>7567500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>6985600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>6508300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>6755900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="V66" s="3">
         <v>6662600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="W66" s="3">
         <v>6569000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +4204,14 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +4257,26 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +4322,26 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +4387,26 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +4452,91 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6770300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6320800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>7035100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6614200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>6545800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>6150100</v>
+      </c>
+      <c r="J72" s="3">
         <v>6860300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>6404200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>6388500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>6008600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>6805100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>6369700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>5774900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>5389000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>6344100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>5803600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>5396400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>5831200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="V72" s="3">
         <v>5392300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="W72" s="3">
         <v>5312500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4582,26 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4647,26 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4712,91 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7330400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6888600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>7604300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>7176900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>7120200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6715700</v>
+      </c>
+      <c r="J76" s="3">
         <v>7451300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>6969300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>6971600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>6576400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>7357600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>6923700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>6337100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>5945500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
         <v>6894500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>6350000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>5940700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>6375400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="V76" s="3">
         <v>5891400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="W76" s="3">
         <v>5853300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4842,161 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>449500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>450600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>421000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>306100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>398300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>358900</v>
+      </c>
+      <c r="J81" s="3">
         <v>410300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>182600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>376700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>339800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>435700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>249900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>387400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>207500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="R81" s="3">
         <v>401400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>407300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3">
         <v>379100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>468200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="V81" s="3">
         <v>322100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="W81" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +5014,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +5067,26 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +5132,26 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +5197,26 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +5262,26 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +5327,26 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +5392,91 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1252100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1095600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1220300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1250700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>929500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1159800</v>
+      </c>
+      <c r="J89" s="3">
         <v>1232200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="K89" s="3">
         <v>1449100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="L89" s="3">
         <v>739300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="M89" s="3">
         <v>1025300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="N89" s="3">
         <v>913900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="O89" s="3">
         <v>1216500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="P89" s="3">
         <v>875100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="Q89" s="3">
         <v>435800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="R89" s="3">
         <v>669600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="S89" s="3">
         <v>1017000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="T89" s="3">
         <v>643300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="U89" s="3">
         <v>914900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="V89" s="3">
         <v>574100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="W89" s="3">
         <v>1003800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +5494,79 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-830600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1224600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>280500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-283600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="K91" s="3">
         <v>-961700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="L91" s="3">
         <v>-1508600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="M91" s="3">
         <v>6600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="O91" s="3">
         <v>1703300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="P91" s="3">
         <v>-1715600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="Q91" s="3">
         <v>15100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="S91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="T91" s="3">
         <v>-45800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="V91" s="3">
         <v>-436500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="W91" s="3">
         <v>-613600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +5612,26 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +5677,91 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-541500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-860500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-473400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-1106600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-234700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-759400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-356200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="K94" s="3">
         <v>-961900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="L94" s="3">
         <v>-405500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="M94" s="3">
         <v>-709200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="N94" s="3">
         <v>-434600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="O94" s="3">
         <v>-769200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="P94" s="3">
         <v>-693100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-545600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="R94" s="3">
         <v>-448400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="S94" s="3">
         <v>-434500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="T94" s="3">
         <v>-563000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="U94" s="3">
         <v>-457800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="V94" s="3">
         <v>-340700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="W94" s="3">
         <v>-602400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5779,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4400,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1068300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4424,13 +5827,31 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5897,26 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5962,26 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +6027,217 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2046000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>106400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>89600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1462000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-479500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="K100" s="3">
         <v>-265200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>-469900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>-755300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>-61800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>-175300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="P100" s="3">
         <v>-412600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="Q100" s="3">
         <v>-748000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="R100" s="3">
         <v>43800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="S100" s="3">
         <v>-22900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="T100" s="3">
         <v>-1104900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="U100" s="3">
         <v>-179900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="V100" s="3">
         <v>-181500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="W100" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="J101" s="3">
         <v>32100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="L101" s="3">
         <v>-7900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="P101" s="3">
         <v>9500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="Q101" s="3">
         <v>7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="R101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="S101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="U101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="V101" s="3">
         <v>12100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1338500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>341900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>779800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>221900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-757300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>271100</v>
+      </c>
+      <c r="J102" s="3">
         <v>428600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="K102" s="3">
         <v>226000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>-144100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="M102" s="3">
         <v>-441400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="N102" s="3">
         <v>415900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="O102" s="3">
         <v>264100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="P102" s="3">
         <v>-221200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>-849900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="R102" s="3">
         <v>267600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="S102" s="3">
         <v>561800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="T102" s="3">
         <v>-1024200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="U102" s="3">
         <v>275200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="V102" s="3">
         <v>64100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="W102" s="3">
         <v>519500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TLK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2601700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2559400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2487500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2376200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2555400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2316000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2286300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2393600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2304800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2330000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2415400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2438800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2211000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2438500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2241800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2264000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2308700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2309900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2171500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2110200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2081400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>883500</v>
+      </c>
+      <c r="E9" s="3">
         <v>760600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>716700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>671200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>743500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>712100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>659100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>684000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>528800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>731400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>878500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>838400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>816900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>893800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>886600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>775000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>660600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>755500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>631800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>619200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>563400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1718200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1798800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1770700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1705000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1811900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1603800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1627300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1709600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1776000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1598600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1536900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1394100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1544700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1355100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1489000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1648200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1554400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1539800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1490900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1518000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,26 +1138,26 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>31900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23900</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>82000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1152,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1173,73 +1192,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>667200</v>
+      </c>
+      <c r="E15" s="3">
         <v>524000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>518800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>510000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>552100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>497800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>495500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>479400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>696200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>405400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>407800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>394900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>389800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>387900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>347100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>376100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>353600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>340000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>334100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>363900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>323300</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1807100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1671400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1653300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1557200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1821000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1560500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1587600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1558600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1649100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1542900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1702700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1596800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1574600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1644500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1736200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1502600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1482400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1519300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1297200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1487100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1354500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>794600</v>
+      </c>
+      <c r="E18" s="3">
         <v>888000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>834100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>818900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>734400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>755400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>698700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>835000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>655800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>787100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>712700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>842000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>636400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>793900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>505500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>761500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>826400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>790700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>874400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>623100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>726900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-85400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-65700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-61800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-76900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-73700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-62400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-70400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-152800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-49000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-60100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-39600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-29300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-25500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-24600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>855200</v>
+      </c>
+      <c r="E21" s="3">
         <v>807500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>777800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1265800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>707500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>694100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>610500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1271700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>823400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>703100</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>594000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>773400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>436900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1113400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>810600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>771100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1196800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>626100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>737200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>733500</v>
+      </c>
+      <c r="E23" s="3">
         <v>802600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>768500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>757100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>657500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>681700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>636400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>764700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>503000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>719300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>665600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>793000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>588400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>733800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>466000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>737200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>797000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>765200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>862700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>598400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>708300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E24" s="3">
         <v>190600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>171200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>170000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>171800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>155500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>137100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>183600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>176800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>180200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>176100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>197800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>166700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>182200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>128000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>178800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>196800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>206400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>109800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>182900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>590500</v>
+      </c>
+      <c r="E26" s="3">
         <v>612000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>597300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>587100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>485700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>526300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>499200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>581100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>326200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>539100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>489600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>595300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>421700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>551600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>338000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>558500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>596300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>568300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>656300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>488600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E27" s="3">
         <v>449500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>450600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>421000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>306100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>398300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>358900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>410300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>182600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>376700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>339800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>435700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>249900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>387400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>207500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>401400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>407300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>379100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>468200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>322100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E32" s="3">
         <v>85400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>65700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>61800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>76900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>73700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>62400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>70400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>152800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>49000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>60100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>39600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>29300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>25500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>24600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E33" s="3">
         <v>449500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>450600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>421000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>306100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>398300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>358900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>410300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>182600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>376700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>339800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>435700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>249900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>387400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>207500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>401400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>407300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>379100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>468200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>322100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E35" s="3">
         <v>449500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>450600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>421000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>306100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>398300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>358900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>410300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>182600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>376700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>339800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>435700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>249900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>387400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>207500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>401400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>407300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>379100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>468200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>322100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2705700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1262300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2584200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2296400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1519600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1231600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2022900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1765100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1290900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1085600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1230800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1661500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1235100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>969400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1206700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2055600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1909700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1347800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2364300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2089000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2020600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E42" s="3">
         <v>8800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>8500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>26800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>109200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>69600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>76900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>64200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>61700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>76000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>65500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>78500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>97900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>97700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>239100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>772500</v>
+      </c>
+      <c r="E43" s="3">
         <v>925500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>921800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1015100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>956100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1020900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1191000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1173300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>933600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1108600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1198200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1086300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1554800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1107100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>893500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>923400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>830800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>716700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>553000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>761500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E44" s="3">
         <v>57800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>69000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>126600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>71800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>59600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>47700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>48000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>53900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>61300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>59900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>79700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>40900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>60700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>746900</v>
+      </c>
+      <c r="E45" s="3">
         <v>606300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>614600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>681400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>919100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>508500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>559000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>554500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>875800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>902700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>820300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>909300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1072400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>880500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>813500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>777400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>643000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>604000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>576000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>558500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>584100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4290200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2860600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4197300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4064400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3255200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2847400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3846900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3567500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2920500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3158900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3412400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3771000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3028800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3255000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3250300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3846600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3601500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2940800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3797700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3339100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3666000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1088600</v>
+      </c>
+      <c r="E47" s="3">
         <v>904000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>885900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>586400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>495300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>310500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>286100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>297500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>392700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>341200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>337600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>366100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>366900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>323300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>352900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>326700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>310000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>295800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>221400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>129300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>203400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12832800</v>
+      </c>
+      <c r="E48" s="3">
         <v>12497200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12414400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12448800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12594000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12249100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12202800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12177700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11021800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10454700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10299900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10257700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10031000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9842900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9589900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9385000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8887100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8688600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8495400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8376300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8035600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>525400</v>
+      </c>
+      <c r="E49" s="3">
         <v>508800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>505300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>485900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>479200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>469100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>461600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>447400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>451200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>386400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>382900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>388100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>352200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>303900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>284500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>258400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>212000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>215100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>212700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>216200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>594100</v>
+      </c>
+      <c r="E52" s="3">
         <v>484300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>475700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>463900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>563900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>449200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>447200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>443900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>948400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>708100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>666100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>554900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>759900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>617300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>659600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>645300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>324900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>308600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>404100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>493100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>308100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19331100</v>
+      </c>
+      <c r="E54" s="3">
         <v>17255000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18478400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18049400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17286000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16325300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17244600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16934000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15484600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15049300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15098900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15337800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14433700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14342500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14137200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14462000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13335600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12449000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13131300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12554000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12422300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1201900</v>
+      </c>
+      <c r="E57" s="3">
         <v>953800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>933400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1120800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1189900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1020900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1119300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>955400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>972800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>960200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1095300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1244700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1033600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1006500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1011600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1047000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>899600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>827000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>867900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>946300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1019100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1813200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2287500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1891600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1727600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1520700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1723000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1464800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1275100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1066900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>832100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>774400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>723700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>814400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1089800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>635500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>440400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>441100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>382500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>380200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>346200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2018700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3155500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2066600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2018500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1902500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3095500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2063100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1970000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1744500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1753700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1590800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1902900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1682900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1658900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1582400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1683500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1484500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1597800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1456800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1490200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4808700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4785700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6376400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5079000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4836500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4444000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5937800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4483200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4085800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3771600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3681100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3609900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3238300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3503700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3760200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3264900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3023500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2752600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2848100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2783300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2855400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3267700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2981900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3241400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2869000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2854700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2803100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2779900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2765200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2370800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2489300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3193100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2271900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2362400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2452900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2583800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1903400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1976800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1985700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1842300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1845700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1938800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1092600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1170500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1153200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1148600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1132500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>826000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>806900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>827300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>820400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>637100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>640600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>641800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>667500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>945800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>911100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>883900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>595300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>569000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>568900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>555700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>463500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10816900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9924600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11589800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10445100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10109100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9205100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10528900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9482700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8515300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8077700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8522500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7980200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7510000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8005400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8191800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7567500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6985600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6508300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6755900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6662600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6569000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8010700</v>
+      </c>
+      <c r="E72" s="3">
         <v>6770300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>6320800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7035100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6614200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6545800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6150100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6860300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6404200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6388500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6008600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6805100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6369700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5774900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5389000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6344100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5803600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5396400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5831200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5392300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5312500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8514200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7330400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6888600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7604300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7176900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7120200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6715700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7451300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6969300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6971600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6576400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7357600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6923700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6337100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5945500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6894500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6350000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5940700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6375400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5891400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5853300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>420400</v>
+      </c>
+      <c r="E81" s="3">
         <v>449500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>450600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>421000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>306100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>398300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>358900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>410300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>182600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>376700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>339800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>435700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>249900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>387400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>207500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>401400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>407300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>379100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>468200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>322100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>336400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1252100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1095600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1220300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1250700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>929500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1159800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1232200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1449100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>739300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1025300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>913900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1216500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>875100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>435800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>669600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1017000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>643300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>914900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>574100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1003800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-830600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1224600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>280500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-283600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-961700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1508600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>1703300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1715600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>15100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-436500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-613600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-778500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-541500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-860500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-473400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1106600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-234700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-759400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-356200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-961900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-405500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-709200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-434600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-769200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-693100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-545600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-448400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-434500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-563000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-457800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-340700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-602400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5803,11 +6036,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1068300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -5845,13 +6078,16 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-134400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2046000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>106400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>25700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>89600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1462000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-101800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-479500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-265200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-469900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-755300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-175300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-412600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-748000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>43800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1104900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-179900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-181500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>121400</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-27500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>32100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1457400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1338500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>341900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>779800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>221900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-757300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>271100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>428600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>226000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-144100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-441400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>415900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>264100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-221200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-849900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>267600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>561800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1024200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>275200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>64100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>519500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLK_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2601700</v>
+        <v>2230000</v>
       </c>
       <c r="E8" s="3">
-        <v>2559400</v>
+        <v>2193800</v>
       </c>
       <c r="F8" s="3">
-        <v>2487500</v>
+        <v>2132100</v>
       </c>
       <c r="G8" s="3">
-        <v>2376200</v>
+        <v>2036700</v>
       </c>
       <c r="H8" s="3">
-        <v>2555400</v>
+        <v>2190400</v>
       </c>
       <c r="I8" s="3">
-        <v>2316000</v>
+        <v>1985100</v>
       </c>
       <c r="J8" s="3">
-        <v>2286300</v>
+        <v>1959700</v>
       </c>
       <c r="K8" s="3">
         <v>2393600</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>883500</v>
+        <v>757300</v>
       </c>
       <c r="E9" s="3">
-        <v>760600</v>
+        <v>652000</v>
       </c>
       <c r="F9" s="3">
-        <v>716700</v>
+        <v>614300</v>
       </c>
       <c r="G9" s="3">
-        <v>671200</v>
+        <v>575300</v>
       </c>
       <c r="H9" s="3">
-        <v>743500</v>
+        <v>637300</v>
       </c>
       <c r="I9" s="3">
-        <v>712100</v>
+        <v>610400</v>
       </c>
       <c r="J9" s="3">
-        <v>659100</v>
+        <v>564900</v>
       </c>
       <c r="K9" s="3">
         <v>684000</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1718200</v>
+        <v>1472800</v>
       </c>
       <c r="E10" s="3">
-        <v>1798800</v>
+        <v>1541800</v>
       </c>
       <c r="F10" s="3">
-        <v>1770700</v>
+        <v>1517800</v>
       </c>
       <c r="G10" s="3">
-        <v>1705000</v>
+        <v>1461400</v>
       </c>
       <c r="H10" s="3">
-        <v>1811900</v>
+        <v>1553000</v>
       </c>
       <c r="I10" s="3">
-        <v>1603800</v>
+        <v>1374700</v>
       </c>
       <c r="J10" s="3">
-        <v>1627300</v>
+        <v>1394800</v>
       </c>
       <c r="K10" s="3">
         <v>1709600</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>31900</v>
+        <v>27300</v>
       </c>
       <c r="I14" s="3">
-        <v>-2400</v>
+        <v>-2000</v>
       </c>
       <c r="J14" s="3">
-        <v>23900</v>
+        <v>20500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>667200</v>
+        <v>571900</v>
       </c>
       <c r="E15" s="3">
-        <v>524000</v>
+        <v>449100</v>
       </c>
       <c r="F15" s="3">
-        <v>518800</v>
+        <v>444700</v>
       </c>
       <c r="G15" s="3">
-        <v>510000</v>
+        <v>437200</v>
       </c>
       <c r="H15" s="3">
-        <v>552100</v>
+        <v>473200</v>
       </c>
       <c r="I15" s="3">
-        <v>497800</v>
+        <v>426700</v>
       </c>
       <c r="J15" s="3">
-        <v>495500</v>
+        <v>424700</v>
       </c>
       <c r="K15" s="3">
         <v>479400</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1807100</v>
+        <v>1548900</v>
       </c>
       <c r="E17" s="3">
-        <v>1671400</v>
+        <v>1432600</v>
       </c>
       <c r="F17" s="3">
-        <v>1653300</v>
+        <v>1417100</v>
       </c>
       <c r="G17" s="3">
-        <v>1557200</v>
+        <v>1334800</v>
       </c>
       <c r="H17" s="3">
-        <v>1821000</v>
+        <v>1560800</v>
       </c>
       <c r="I17" s="3">
-        <v>1560500</v>
+        <v>1337600</v>
       </c>
       <c r="J17" s="3">
-        <v>1587600</v>
+        <v>1360800</v>
       </c>
       <c r="K17" s="3">
         <v>1558600</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>794600</v>
+        <v>681100</v>
       </c>
       <c r="E18" s="3">
-        <v>888000</v>
+        <v>761200</v>
       </c>
       <c r="F18" s="3">
-        <v>834100</v>
+        <v>715000</v>
       </c>
       <c r="G18" s="3">
-        <v>818900</v>
+        <v>701900</v>
       </c>
       <c r="H18" s="3">
-        <v>734400</v>
+        <v>629500</v>
       </c>
       <c r="I18" s="3">
-        <v>755400</v>
+        <v>647500</v>
       </c>
       <c r="J18" s="3">
-        <v>698700</v>
+        <v>598900</v>
       </c>
       <c r="K18" s="3">
         <v>835000</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-61100</v>
+        <v>-52400</v>
       </c>
       <c r="E20" s="3">
-        <v>-85400</v>
+        <v>-73200</v>
       </c>
       <c r="F20" s="3">
-        <v>-65700</v>
+        <v>-56300</v>
       </c>
       <c r="G20" s="3">
-        <v>-61800</v>
+        <v>-53000</v>
       </c>
       <c r="H20" s="3">
-        <v>-76900</v>
+        <v>-65900</v>
       </c>
       <c r="I20" s="3">
-        <v>-73700</v>
+        <v>-63200</v>
       </c>
       <c r="J20" s="3">
-        <v>-62400</v>
+        <v>-53500</v>
       </c>
       <c r="K20" s="3">
         <v>-70400</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>855200</v>
+        <v>733000</v>
       </c>
       <c r="E21" s="3">
-        <v>807500</v>
+        <v>692100</v>
       </c>
       <c r="F21" s="3">
-        <v>777800</v>
+        <v>666700</v>
       </c>
       <c r="G21" s="3">
-        <v>1265800</v>
+        <v>1085000</v>
       </c>
       <c r="H21" s="3">
-        <v>707500</v>
+        <v>606400</v>
       </c>
       <c r="I21" s="3">
-        <v>694100</v>
+        <v>595000</v>
       </c>
       <c r="J21" s="3">
-        <v>610500</v>
+        <v>523300</v>
       </c>
       <c r="K21" s="3">
         <v>1271700</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>733500</v>
+        <v>628700</v>
       </c>
       <c r="E23" s="3">
-        <v>802600</v>
+        <v>688000</v>
       </c>
       <c r="F23" s="3">
-        <v>768500</v>
+        <v>658700</v>
       </c>
       <c r="G23" s="3">
-        <v>757100</v>
+        <v>649000</v>
       </c>
       <c r="H23" s="3">
-        <v>657500</v>
+        <v>563600</v>
       </c>
       <c r="I23" s="3">
-        <v>681700</v>
+        <v>584300</v>
       </c>
       <c r="J23" s="3">
-        <v>636400</v>
+        <v>545500</v>
       </c>
       <c r="K23" s="3">
         <v>764700</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>143000</v>
+        <v>122600</v>
       </c>
       <c r="E24" s="3">
-        <v>190600</v>
+        <v>163400</v>
       </c>
       <c r="F24" s="3">
-        <v>171200</v>
+        <v>146700</v>
       </c>
       <c r="G24" s="3">
-        <v>170000</v>
+        <v>145700</v>
       </c>
       <c r="H24" s="3">
-        <v>171800</v>
+        <v>147200</v>
       </c>
       <c r="I24" s="3">
-        <v>155500</v>
+        <v>133300</v>
       </c>
       <c r="J24" s="3">
-        <v>137100</v>
+        <v>117500</v>
       </c>
       <c r="K24" s="3">
         <v>183600</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>590500</v>
+        <v>506200</v>
       </c>
       <c r="E26" s="3">
-        <v>612000</v>
+        <v>524600</v>
       </c>
       <c r="F26" s="3">
-        <v>597300</v>
+        <v>512000</v>
       </c>
       <c r="G26" s="3">
-        <v>587100</v>
+        <v>503200</v>
       </c>
       <c r="H26" s="3">
-        <v>485700</v>
+        <v>416300</v>
       </c>
       <c r="I26" s="3">
-        <v>526300</v>
+        <v>451100</v>
       </c>
       <c r="J26" s="3">
-        <v>499200</v>
+        <v>427900</v>
       </c>
       <c r="K26" s="3">
         <v>581100</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>420400</v>
+        <v>360300</v>
       </c>
       <c r="E27" s="3">
-        <v>449500</v>
+        <v>385300</v>
       </c>
       <c r="F27" s="3">
-        <v>450600</v>
+        <v>386200</v>
       </c>
       <c r="G27" s="3">
-        <v>421000</v>
+        <v>360800</v>
       </c>
       <c r="H27" s="3">
-        <v>306100</v>
+        <v>262400</v>
       </c>
       <c r="I27" s="3">
-        <v>398300</v>
+        <v>341400</v>
       </c>
       <c r="J27" s="3">
-        <v>358900</v>
+        <v>307600</v>
       </c>
       <c r="K27" s="3">
         <v>410300</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>61100</v>
+        <v>52400</v>
       </c>
       <c r="E32" s="3">
-        <v>85400</v>
+        <v>73200</v>
       </c>
       <c r="F32" s="3">
-        <v>65700</v>
+        <v>56300</v>
       </c>
       <c r="G32" s="3">
-        <v>61800</v>
+        <v>53000</v>
       </c>
       <c r="H32" s="3">
-        <v>76900</v>
+        <v>65900</v>
       </c>
       <c r="I32" s="3">
-        <v>73700</v>
+        <v>63200</v>
       </c>
       <c r="J32" s="3">
-        <v>62400</v>
+        <v>53500</v>
       </c>
       <c r="K32" s="3">
         <v>70400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>420400</v>
+        <v>360300</v>
       </c>
       <c r="E33" s="3">
-        <v>449500</v>
+        <v>385300</v>
       </c>
       <c r="F33" s="3">
-        <v>450600</v>
+        <v>386200</v>
       </c>
       <c r="G33" s="3">
-        <v>421000</v>
+        <v>360800</v>
       </c>
       <c r="H33" s="3">
-        <v>306100</v>
+        <v>262400</v>
       </c>
       <c r="I33" s="3">
-        <v>398300</v>
+        <v>341400</v>
       </c>
       <c r="J33" s="3">
-        <v>358900</v>
+        <v>307600</v>
       </c>
       <c r="K33" s="3">
         <v>410300</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>420400</v>
+        <v>360300</v>
       </c>
       <c r="E35" s="3">
-        <v>449500</v>
+        <v>385300</v>
       </c>
       <c r="F35" s="3">
-        <v>450600</v>
+        <v>386200</v>
       </c>
       <c r="G35" s="3">
-        <v>421000</v>
+        <v>360800</v>
       </c>
       <c r="H35" s="3">
-        <v>306100</v>
+        <v>262400</v>
       </c>
       <c r="I35" s="3">
-        <v>398300</v>
+        <v>341400</v>
       </c>
       <c r="J35" s="3">
-        <v>358900</v>
+        <v>307600</v>
       </c>
       <c r="K35" s="3">
         <v>410300</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2705700</v>
+        <v>2319200</v>
       </c>
       <c r="E41" s="3">
-        <v>1262300</v>
+        <v>1082000</v>
       </c>
       <c r="F41" s="3">
-        <v>2584200</v>
+        <v>2215000</v>
       </c>
       <c r="G41" s="3">
-        <v>2296400</v>
+        <v>1968300</v>
       </c>
       <c r="H41" s="3">
-        <v>1519600</v>
+        <v>1302500</v>
       </c>
       <c r="I41" s="3">
-        <v>1231600</v>
+        <v>1055600</v>
       </c>
       <c r="J41" s="3">
-        <v>2022900</v>
+        <v>1733900</v>
       </c>
       <c r="K41" s="3">
         <v>1765100</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10600</v>
+        <v>9100</v>
       </c>
       <c r="E42" s="3">
-        <v>8800</v>
+        <v>7500</v>
       </c>
       <c r="F42" s="3">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="G42" s="3">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="H42" s="3">
-        <v>12800</v>
+        <v>11000</v>
       </c>
       <c r="I42" s="3">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="J42" s="3">
-        <v>14400</v>
+        <v>12400</v>
       </c>
       <c r="K42" s="3">
         <v>26800</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>772500</v>
+        <v>662100</v>
       </c>
       <c r="E43" s="3">
-        <v>925500</v>
+        <v>793300</v>
       </c>
       <c r="F43" s="3">
-        <v>921800</v>
+        <v>790100</v>
       </c>
       <c r="G43" s="3">
-        <v>1015100</v>
+        <v>870100</v>
       </c>
       <c r="H43" s="3">
-        <v>956100</v>
+        <v>819500</v>
       </c>
       <c r="I43" s="3">
-        <v>1020900</v>
+        <v>875000</v>
       </c>
       <c r="J43" s="3">
-        <v>1191000</v>
+        <v>1020800</v>
       </c>
       <c r="K43" s="3">
         <v>1173300</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>54500</v>
+        <v>46700</v>
       </c>
       <c r="E44" s="3">
-        <v>57800</v>
+        <v>49500</v>
       </c>
       <c r="F44" s="3">
-        <v>69000</v>
+        <v>59100</v>
       </c>
       <c r="G44" s="3">
-        <v>63100</v>
+        <v>54100</v>
       </c>
       <c r="H44" s="3">
-        <v>126600</v>
+        <v>108500</v>
       </c>
       <c r="I44" s="3">
-        <v>71800</v>
+        <v>61600</v>
       </c>
       <c r="J44" s="3">
-        <v>59600</v>
+        <v>51100</v>
       </c>
       <c r="K44" s="3">
         <v>47700</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>746900</v>
+        <v>640200</v>
       </c>
       <c r="E45" s="3">
-        <v>606300</v>
+        <v>519700</v>
       </c>
       <c r="F45" s="3">
-        <v>614600</v>
+        <v>526800</v>
       </c>
       <c r="G45" s="3">
-        <v>681400</v>
+        <v>584000</v>
       </c>
       <c r="H45" s="3">
-        <v>919100</v>
+        <v>787800</v>
       </c>
       <c r="I45" s="3">
-        <v>508500</v>
+        <v>435800</v>
       </c>
       <c r="J45" s="3">
-        <v>559000</v>
+        <v>479100</v>
       </c>
       <c r="K45" s="3">
         <v>554500</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4290200</v>
+        <v>3677300</v>
       </c>
       <c r="E46" s="3">
-        <v>2860600</v>
+        <v>2452000</v>
       </c>
       <c r="F46" s="3">
-        <v>4197300</v>
+        <v>3597700</v>
       </c>
       <c r="G46" s="3">
-        <v>4064400</v>
+        <v>3483800</v>
       </c>
       <c r="H46" s="3">
-        <v>3255200</v>
+        <v>2790200</v>
       </c>
       <c r="I46" s="3">
-        <v>2847400</v>
+        <v>2440600</v>
       </c>
       <c r="J46" s="3">
-        <v>3846900</v>
+        <v>3297400</v>
       </c>
       <c r="K46" s="3">
         <v>3567500</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1088600</v>
+        <v>933100</v>
       </c>
       <c r="E47" s="3">
-        <v>904000</v>
+        <v>774800</v>
       </c>
       <c r="F47" s="3">
-        <v>885900</v>
+        <v>759300</v>
       </c>
       <c r="G47" s="3">
-        <v>586400</v>
+        <v>502600</v>
       </c>
       <c r="H47" s="3">
-        <v>495300</v>
+        <v>424600</v>
       </c>
       <c r="I47" s="3">
-        <v>310500</v>
+        <v>266200</v>
       </c>
       <c r="J47" s="3">
-        <v>286100</v>
+        <v>245200</v>
       </c>
       <c r="K47" s="3">
         <v>297500</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12832800</v>
+        <v>10999600</v>
       </c>
       <c r="E48" s="3">
-        <v>12497200</v>
+        <v>10711900</v>
       </c>
       <c r="F48" s="3">
-        <v>12414400</v>
+        <v>10640900</v>
       </c>
       <c r="G48" s="3">
-        <v>12448800</v>
+        <v>10670400</v>
       </c>
       <c r="H48" s="3">
-        <v>12594000</v>
+        <v>10794800</v>
       </c>
       <c r="I48" s="3">
-        <v>12249100</v>
+        <v>10499200</v>
       </c>
       <c r="J48" s="3">
-        <v>12202800</v>
+        <v>10459600</v>
       </c>
       <c r="K48" s="3">
         <v>12177700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>525400</v>
+        <v>450400</v>
       </c>
       <c r="E49" s="3">
-        <v>508800</v>
+        <v>436100</v>
       </c>
       <c r="F49" s="3">
-        <v>505300</v>
+        <v>433100</v>
       </c>
       <c r="G49" s="3">
-        <v>485900</v>
+        <v>416500</v>
       </c>
       <c r="H49" s="3">
-        <v>479200</v>
+        <v>410800</v>
       </c>
       <c r="I49" s="3">
-        <v>469100</v>
+        <v>402100</v>
       </c>
       <c r="J49" s="3">
-        <v>461600</v>
+        <v>395600</v>
       </c>
       <c r="K49" s="3">
         <v>447400</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>594100</v>
+        <v>509200</v>
       </c>
       <c r="E52" s="3">
-        <v>484300</v>
+        <v>415100</v>
       </c>
       <c r="F52" s="3">
-        <v>475700</v>
+        <v>407700</v>
       </c>
       <c r="G52" s="3">
-        <v>463900</v>
+        <v>397600</v>
       </c>
       <c r="H52" s="3">
-        <v>563900</v>
+        <v>483400</v>
       </c>
       <c r="I52" s="3">
-        <v>449200</v>
+        <v>385000</v>
       </c>
       <c r="J52" s="3">
-        <v>447200</v>
+        <v>383300</v>
       </c>
       <c r="K52" s="3">
         <v>443900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19331100</v>
+        <v>16569500</v>
       </c>
       <c r="E54" s="3">
-        <v>17255000</v>
+        <v>14790000</v>
       </c>
       <c r="F54" s="3">
-        <v>18478400</v>
+        <v>15838600</v>
       </c>
       <c r="G54" s="3">
-        <v>18049400</v>
+        <v>15470900</v>
       </c>
       <c r="H54" s="3">
-        <v>17286000</v>
+        <v>14816600</v>
       </c>
       <c r="I54" s="3">
-        <v>16325300</v>
+        <v>13993100</v>
       </c>
       <c r="J54" s="3">
-        <v>17244600</v>
+        <v>14781100</v>
       </c>
       <c r="K54" s="3">
         <v>16934000</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1201900</v>
+        <v>1030200</v>
       </c>
       <c r="E57" s="3">
-        <v>953800</v>
+        <v>817500</v>
       </c>
       <c r="F57" s="3">
-        <v>933400</v>
+        <v>800000</v>
       </c>
       <c r="G57" s="3">
-        <v>1120800</v>
+        <v>960700</v>
       </c>
       <c r="H57" s="3">
-        <v>1189900</v>
+        <v>1019900</v>
       </c>
       <c r="I57" s="3">
-        <v>1020900</v>
+        <v>875000</v>
       </c>
       <c r="J57" s="3">
-        <v>1119300</v>
+        <v>959400</v>
       </c>
       <c r="K57" s="3">
         <v>955400</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1532800</v>
+        <v>1313800</v>
       </c>
       <c r="E58" s="3">
-        <v>1813200</v>
+        <v>1554200</v>
       </c>
       <c r="F58" s="3">
-        <v>2287500</v>
+        <v>1960700</v>
       </c>
       <c r="G58" s="3">
-        <v>1891600</v>
+        <v>1621400</v>
       </c>
       <c r="H58" s="3">
-        <v>1727600</v>
+        <v>1480800</v>
       </c>
       <c r="I58" s="3">
-        <v>1520700</v>
+        <v>1303400</v>
       </c>
       <c r="J58" s="3">
-        <v>1723000</v>
+        <v>1476800</v>
       </c>
       <c r="K58" s="3">
         <v>1464800</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2074000</v>
+        <v>1777700</v>
       </c>
       <c r="E59" s="3">
-        <v>2018700</v>
+        <v>1730300</v>
       </c>
       <c r="F59" s="3">
-        <v>3155500</v>
+        <v>2704700</v>
       </c>
       <c r="G59" s="3">
-        <v>2066600</v>
+        <v>1771400</v>
       </c>
       <c r="H59" s="3">
-        <v>2018500</v>
+        <v>1730200</v>
       </c>
       <c r="I59" s="3">
-        <v>1902500</v>
+        <v>1630700</v>
       </c>
       <c r="J59" s="3">
-        <v>3095500</v>
+        <v>2653300</v>
       </c>
       <c r="K59" s="3">
         <v>2063100</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4808700</v>
+        <v>4121700</v>
       </c>
       <c r="E60" s="3">
-        <v>4785700</v>
+        <v>4102000</v>
       </c>
       <c r="F60" s="3">
-        <v>6376400</v>
+        <v>5465500</v>
       </c>
       <c r="G60" s="3">
-        <v>5079000</v>
+        <v>4353400</v>
       </c>
       <c r="H60" s="3">
-        <v>4836500</v>
+        <v>4145600</v>
       </c>
       <c r="I60" s="3">
-        <v>4444000</v>
+        <v>3809200</v>
       </c>
       <c r="J60" s="3">
-        <v>5937800</v>
+        <v>5089600</v>
       </c>
       <c r="K60" s="3">
         <v>4483200</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3267700</v>
+        <v>2800900</v>
       </c>
       <c r="E61" s="3">
-        <v>2981900</v>
+        <v>2555900</v>
       </c>
       <c r="F61" s="3">
-        <v>3241400</v>
+        <v>2778300</v>
       </c>
       <c r="G61" s="3">
-        <v>2869000</v>
+        <v>2459100</v>
       </c>
       <c r="H61" s="3">
-        <v>2854700</v>
+        <v>2446900</v>
       </c>
       <c r="I61" s="3">
-        <v>2803100</v>
+        <v>2402600</v>
       </c>
       <c r="J61" s="3">
-        <v>2779900</v>
+        <v>2382800</v>
       </c>
       <c r="K61" s="3">
         <v>2765200</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1092600</v>
+        <v>936500</v>
       </c>
       <c r="E62" s="3">
-        <v>1170500</v>
+        <v>1003300</v>
       </c>
       <c r="F62" s="3">
-        <v>1153200</v>
+        <v>988400</v>
       </c>
       <c r="G62" s="3">
-        <v>1148600</v>
+        <v>984500</v>
       </c>
       <c r="H62" s="3">
-        <v>1132500</v>
+        <v>970700</v>
       </c>
       <c r="I62" s="3">
-        <v>826000</v>
+        <v>708000</v>
       </c>
       <c r="J62" s="3">
-        <v>806900</v>
+        <v>691600</v>
       </c>
       <c r="K62" s="3">
         <v>827300</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10816900</v>
+        <v>9271600</v>
       </c>
       <c r="E66" s="3">
-        <v>9924600</v>
+        <v>8506800</v>
       </c>
       <c r="F66" s="3">
-        <v>11589800</v>
+        <v>9934100</v>
       </c>
       <c r="G66" s="3">
-        <v>10445100</v>
+        <v>8952900</v>
       </c>
       <c r="H66" s="3">
-        <v>10109100</v>
+        <v>8665000</v>
       </c>
       <c r="I66" s="3">
-        <v>9205100</v>
+        <v>7890100</v>
       </c>
       <c r="J66" s="3">
-        <v>10528900</v>
+        <v>9024800</v>
       </c>
       <c r="K66" s="3">
         <v>9482700</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8010700</v>
+        <v>6866300</v>
       </c>
       <c r="E72" s="3">
-        <v>6770300</v>
+        <v>5803100</v>
       </c>
       <c r="F72" s="3">
-        <v>6320800</v>
+        <v>5417800</v>
       </c>
       <c r="G72" s="3">
-        <v>7035100</v>
+        <v>6030100</v>
       </c>
       <c r="H72" s="3">
-        <v>6614200</v>
+        <v>5669300</v>
       </c>
       <c r="I72" s="3">
-        <v>6545800</v>
+        <v>5610700</v>
       </c>
       <c r="J72" s="3">
-        <v>6150100</v>
+        <v>5271500</v>
       </c>
       <c r="K72" s="3">
         <v>6860300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8514200</v>
+        <v>7297900</v>
       </c>
       <c r="E76" s="3">
-        <v>7330400</v>
+        <v>6283200</v>
       </c>
       <c r="F76" s="3">
-        <v>6888600</v>
+        <v>5904500</v>
       </c>
       <c r="G76" s="3">
-        <v>7604300</v>
+        <v>6518000</v>
       </c>
       <c r="H76" s="3">
-        <v>7176900</v>
+        <v>6151600</v>
       </c>
       <c r="I76" s="3">
-        <v>7120200</v>
+        <v>6103000</v>
       </c>
       <c r="J76" s="3">
-        <v>6715700</v>
+        <v>5756300</v>
       </c>
       <c r="K76" s="3">
         <v>7451300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>420400</v>
+        <v>360300</v>
       </c>
       <c r="E81" s="3">
-        <v>449500</v>
+        <v>385300</v>
       </c>
       <c r="F81" s="3">
-        <v>450600</v>
+        <v>386200</v>
       </c>
       <c r="G81" s="3">
-        <v>421000</v>
+        <v>360800</v>
       </c>
       <c r="H81" s="3">
-        <v>306100</v>
+        <v>262400</v>
       </c>
       <c r="I81" s="3">
-        <v>398300</v>
+        <v>341400</v>
       </c>
       <c r="J81" s="3">
-        <v>358900</v>
+        <v>307600</v>
       </c>
       <c r="K81" s="3">
         <v>410300</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1216600</v>
+        <v>1042800</v>
       </c>
       <c r="E89" s="3">
-        <v>1252100</v>
+        <v>1073200</v>
       </c>
       <c r="F89" s="3">
-        <v>1095600</v>
+        <v>939100</v>
       </c>
       <c r="G89" s="3">
-        <v>1220300</v>
+        <v>1046000</v>
       </c>
       <c r="H89" s="3">
-        <v>1250700</v>
+        <v>1072000</v>
       </c>
       <c r="I89" s="3">
-        <v>929500</v>
+        <v>796700</v>
       </c>
       <c r="J89" s="3">
-        <v>1159800</v>
+        <v>994100</v>
       </c>
       <c r="K89" s="3">
         <v>1232200</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-21500</v>
+        <v>-18400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="F91" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="G91" s="3">
-        <v>-12200</v>
+        <v>-10400</v>
       </c>
       <c r="H91" s="3">
-        <v>-830600</v>
+        <v>-711900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1224600</v>
+        <v>-1049600</v>
       </c>
       <c r="J91" s="3">
-        <v>280500</v>
+        <v>240400</v>
       </c>
       <c r="K91" s="3">
         <v>-283600</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-778500</v>
+        <v>-667300</v>
       </c>
       <c r="E94" s="3">
-        <v>-541500</v>
+        <v>-464200</v>
       </c>
       <c r="F94" s="3">
-        <v>-860500</v>
+        <v>-737600</v>
       </c>
       <c r="G94" s="3">
-        <v>-473400</v>
+        <v>-405800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1106600</v>
+        <v>-948500</v>
       </c>
       <c r="I94" s="3">
-        <v>-234700</v>
+        <v>-201200</v>
       </c>
       <c r="J94" s="3">
-        <v>-759400</v>
+        <v>-650900</v>
       </c>
       <c r="K94" s="3">
         <v>-356200</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1068300</v>
+        <v>-915700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1019700</v>
+        <v>874000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2046000</v>
+        <v>-1753700</v>
       </c>
       <c r="F100" s="3">
-        <v>106400</v>
+        <v>91200</v>
       </c>
       <c r="G100" s="3">
-        <v>25700</v>
+        <v>22000</v>
       </c>
       <c r="H100" s="3">
-        <v>89600</v>
+        <v>76800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1462000</v>
+        <v>-1253200</v>
       </c>
       <c r="J100" s="3">
-        <v>-101800</v>
+        <v>-87200</v>
       </c>
       <c r="K100" s="3">
         <v>-479500</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>-2600</v>
       </c>
       <c r="F101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
-        <v>-11800</v>
+        <v>-10100</v>
       </c>
       <c r="I101" s="3">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="J101" s="3">
-        <v>-27500</v>
+        <v>-23600</v>
       </c>
       <c r="K101" s="3">
         <v>32100</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1457400</v>
+        <v>1249200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1338500</v>
+        <v>-1147300</v>
       </c>
       <c r="F102" s="3">
-        <v>341900</v>
+        <v>293000</v>
       </c>
       <c r="G102" s="3">
-        <v>779800</v>
+        <v>668400</v>
       </c>
       <c r="H102" s="3">
-        <v>221900</v>
+        <v>190200</v>
       </c>
       <c r="I102" s="3">
-        <v>-757300</v>
+        <v>-649100</v>
       </c>
       <c r="J102" s="3">
-        <v>271100</v>
+        <v>232400</v>
       </c>
       <c r="K102" s="3">
         <v>428600</v>
